--- a/data/trans_orig/iP30KDB2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/iP30KDB2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4891026-39B7-484E-B854-45877C9328D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A98B8198-9134-477E-BB9C-087A9AD415C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BCD25183-2A25-499D-AEA6-CE040AF3B735}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DF200020-949E-4C47-89F7-B6401FD1675E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
   <si>
     <t>Menores según si toman frutos secos con regularidad (al menos 2-3 veces a la semana) en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,226 +134,214 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -768,7 +756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A6BFD4-5726-443A-A99F-915257B456A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EDB1E9-2342-4ADC-A38E-0B2E29F67A02}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -886,10 +874,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7">
-        <v>16012</v>
+        <v>12234</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -901,10 +889,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>12775</v>
+        <v>16183</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -919,7 +907,7 @@
         <v>51</v>
       </c>
       <c r="N4" s="7">
-        <v>28786</v>
+        <v>28416</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -937,10 +925,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D5" s="7">
-        <v>27132</v>
+        <v>34261</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -952,10 +940,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I5" s="7">
-        <v>33518</v>
+        <v>29102</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -970,7 +958,7 @@
         <v>113</v>
       </c>
       <c r="N5" s="7">
-        <v>60650</v>
+        <v>63363</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -988,25 +976,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>83</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46495</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>81</v>
       </c>
-      <c r="D6" s="7">
-        <v>43144</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>83</v>
-      </c>
       <c r="I6" s="7">
-        <v>46293</v>
+        <v>45285</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1021,7 +1009,7 @@
         <v>164</v>
       </c>
       <c r="N6" s="7">
-        <v>89436</v>
+        <v>91779</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1041,10 +1029,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="D7" s="7">
-        <v>98034</v>
+        <v>81321</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1056,10 +1044,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="I7" s="7">
-        <v>80699</v>
+        <v>100914</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1074,7 +1062,7 @@
         <v>279</v>
       </c>
       <c r="N7" s="7">
-        <v>178733</v>
+        <v>182236</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1095,46 +1083,46 @@
         <v>127</v>
       </c>
       <c r="D8" s="7">
-        <v>76683</v>
+        <v>77978</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>127</v>
       </c>
       <c r="I8" s="7">
-        <v>78066</v>
+        <v>81045</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>254</v>
       </c>
       <c r="N8" s="7">
-        <v>154749</v>
+        <v>159023</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1143,25 +1131,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>275</v>
       </c>
-      <c r="D9" s="7">
-        <v>174717</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>181959</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1176,7 +1164,7 @@
         <v>533</v>
       </c>
       <c r="N9" s="7">
-        <v>333482</v>
+        <v>341259</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1190,55 +1178,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>133</v>
+      </c>
+      <c r="D10" s="7">
+        <v>98127</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="7">
         <v>136</v>
       </c>
-      <c r="D10" s="7">
-        <v>113181</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>116917</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>133</v>
-      </c>
-      <c r="I10" s="7">
-        <v>101460</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>269</v>
       </c>
       <c r="N10" s="7">
-        <v>214640</v>
+        <v>215044</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1247,49 +1235,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>100</v>
+      </c>
+      <c r="D11" s="7">
+        <v>74945</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="7">
         <v>107</v>
       </c>
-      <c r="D11" s="7">
-        <v>89297</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>95573</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>100</v>
-      </c>
-      <c r="I11" s="7">
-        <v>74653</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>207</v>
       </c>
       <c r="N11" s="7">
-        <v>163951</v>
+        <v>170519</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1298,25 +1286,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1331,7 +1319,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1345,55 +1333,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>173</v>
+      </c>
+      <c r="D13" s="7">
+        <v>150707</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="7">
         <v>206</v>
       </c>
-      <c r="D13" s="7">
-        <v>179204</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>185807</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>173</v>
-      </c>
-      <c r="I13" s="7">
-        <v>137757</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>379</v>
       </c>
       <c r="N13" s="7">
-        <v>316961</v>
+        <v>336514</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1402,49 +1390,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>168</v>
+      </c>
+      <c r="D14" s="7">
+        <v>123560</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="7">
         <v>135</v>
       </c>
-      <c r="D14" s="7">
-        <v>109790</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>119192</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H14" s="7">
-        <v>168</v>
-      </c>
-      <c r="I14" s="7">
-        <v>121681</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>303</v>
       </c>
       <c r="N14" s="7">
-        <v>231472</v>
+        <v>242752</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1456,7 +1444,7 @@
         <v>341</v>
       </c>
       <c r="D15" s="7">
-        <v>288994</v>
+        <v>274267</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1471,7 +1459,7 @@
         <v>341</v>
       </c>
       <c r="I15" s="7">
-        <v>259438</v>
+        <v>304999</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1486,7 +1474,7 @@
         <v>682</v>
       </c>
       <c r="N15" s="7">
-        <v>548433</v>
+        <v>579266</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1506,49 +1494,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>459</v>
+      </c>
+      <c r="D16" s="7">
+        <v>342390</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="7">
         <v>519</v>
       </c>
-      <c r="D16" s="7">
-        <v>406430</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>419820</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="7">
-        <v>459</v>
-      </c>
-      <c r="I16" s="7">
-        <v>332691</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>978</v>
       </c>
       <c r="N16" s="7">
-        <v>739121</v>
+        <v>762210</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,49 +1545,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>456</v>
+      </c>
+      <c r="D17" s="7">
+        <v>310744</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="7">
         <v>421</v>
       </c>
-      <c r="D17" s="7">
-        <v>302903</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>324913</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="7">
-        <v>456</v>
-      </c>
-      <c r="I17" s="7">
-        <v>307918</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>877</v>
       </c>
       <c r="N17" s="7">
-        <v>610821</v>
+        <v>635657</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,25 +1596,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>915</v>
+      </c>
+      <c r="D18" s="7">
+        <v>653134</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>940</v>
       </c>
-      <c r="D18" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>915</v>
-      </c>
       <c r="I18" s="7">
-        <v>640609</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1641,7 +1629,7 @@
         <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>1349942</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1655,7 +1643,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
